--- a/FileNames/25-ECMW-QCD-011 Non-Conformance Report.xlsx
+++ b/FileNames/25-ECMW-QCD-011 Non-Conformance Report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Google Drive\QMS-Updated Names\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -286,9 +291,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -297,6 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,6 +311,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -442,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -701,13 +709,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -727,118 +735,118 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;CECMW-QCD-011&amp;RRevision Date: 12-19-14 C</oddFooter>
+    <oddFooter>&amp;LECMW-QCD-011&amp;CRevision Date: 12-19-14 C&amp;R&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
